--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AR2_50_6_matched_errors_T45.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AR2_50_6_matched_errors_T45.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2020-07-01 00:00:00_diff</t>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -512,25 +515,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.627944642717427</v>
+        <v>1.537235586080065</v>
       </c>
       <c r="C3">
-        <v>-14.06217932890006</v>
+        <v>9.793174525304376</v>
       </c>
       <c r="D3">
-        <v>-4.673868413464427</v>
+        <v>-8.287524531353117</v>
       </c>
       <c r="E3">
-        <v>-1.935174446597504</v>
+        <v>-0.0318104525324077</v>
       </c>
       <c r="F3">
-        <v>-4.389680736670638</v>
+        <v>1.81535338203464</v>
       </c>
       <c r="G3">
-        <v>-4.134058956105767</v>
+        <v>-1.333595567856255</v>
       </c>
       <c r="H3">
-        <v>-1.20012607464721</v>
+        <v>-1.61435418494062</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -538,25 +541,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-12.38199818233083</v>
+        <v>2.627944642717427</v>
       </c>
       <c r="C4">
-        <v>2.742176349044278</v>
+        <v>-14.06217932890006</v>
       </c>
       <c r="D4">
-        <v>0.312881869627589</v>
+        <v>-4.673868413464427</v>
       </c>
       <c r="E4">
-        <v>-0.408319721481464</v>
+        <v>-1.935174446597504</v>
       </c>
       <c r="F4">
-        <v>-2.155877054195791</v>
+        <v>-4.389680736670638</v>
       </c>
       <c r="G4">
-        <v>1.211880171423111</v>
+        <v>-4.134058956105767</v>
       </c>
       <c r="H4">
-        <v>-0.2204442241744874</v>
+        <v>-1.20012607464721</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -564,25 +567,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.9850301776737167</v>
+        <v>-12.38199818233083</v>
       </c>
       <c r="C5">
-        <v>2.175752524391212</v>
+        <v>2.742176349044278</v>
       </c>
       <c r="D5">
-        <v>-1.169228645652444</v>
+        <v>0.312881869627589</v>
       </c>
       <c r="E5">
-        <v>-1.605646058573539</v>
+        <v>-0.408319721481464</v>
       </c>
       <c r="F5">
-        <v>0.9646269304998711</v>
+        <v>-2.155877054195791</v>
       </c>
       <c r="G5">
-        <v>0.04013991644653381</v>
+        <v>1.211880171423111</v>
       </c>
       <c r="H5">
-        <v>0.2665276098352697</v>
+        <v>-0.2204442241744874</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -590,25 +593,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2.583984978012982</v>
+        <v>-0.9850301776737167</v>
       </c>
       <c r="C6">
-        <v>-0.9176056017660498</v>
+        <v>2.175752524391212</v>
       </c>
       <c r="D6">
-        <v>-1.687552112396674</v>
+        <v>-1.169228645652444</v>
       </c>
       <c r="E6">
-        <v>1.039718979881157</v>
+        <v>-1.605646058573539</v>
       </c>
       <c r="F6">
-        <v>0.1460470769602576</v>
+        <v>0.9646269304998711</v>
       </c>
       <c r="G6">
-        <v>0.3249442559939251</v>
+        <v>0.04013991644653381</v>
       </c>
       <c r="H6">
-        <v>0.02720553496627992</v>
+        <v>0.2665276098352697</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -616,25 +619,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-1.023104813614865</v>
+        <v>2.583984978012982</v>
       </c>
       <c r="C7">
-        <v>-1.813657396362032</v>
+        <v>-0.9176056017660498</v>
       </c>
       <c r="D7">
-        <v>1.207967048514389</v>
+        <v>-1.687552112396674</v>
       </c>
       <c r="E7">
-        <v>0.2067111695641399</v>
+        <v>1.039718979881157</v>
       </c>
       <c r="F7">
-        <v>0.336077095368558</v>
+        <v>0.1460470769602576</v>
       </c>
       <c r="G7">
-        <v>0.09006828629321051</v>
+        <v>0.3249442559939251</v>
       </c>
       <c r="H7">
-        <v>0.6042840761829015</v>
+        <v>0.02720553496627992</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -642,25 +645,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>-2.418098016209771</v>
+        <v>-1.023104813614865</v>
       </c>
       <c r="C8">
-        <v>1.143763671159695</v>
+        <v>-1.813657396362032</v>
       </c>
       <c r="D8">
-        <v>0.4982584776213567</v>
+        <v>1.207967048514389</v>
       </c>
       <c r="E8">
-        <v>0.2983702192826244</v>
+        <v>0.2067111695641399</v>
       </c>
       <c r="F8">
-        <v>0.08148426621974941</v>
+        <v>0.336077095368558</v>
       </c>
       <c r="G8">
-        <v>0.6880251537802698</v>
+        <v>0.09006828629321051</v>
       </c>
       <c r="H8">
-        <v>0.3341541794959351</v>
+        <v>0.6042840761829015</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -668,25 +671,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1.056122842320784</v>
+        <v>-2.418098016209771</v>
       </c>
       <c r="C9">
-        <v>0.4458392755916881</v>
+        <v>1.143763671159695</v>
       </c>
       <c r="D9">
-        <v>0.35701661626763</v>
+        <v>0.4982584776213567</v>
       </c>
       <c r="E9">
-        <v>0.08641341155685073</v>
+        <v>0.2983702192826244</v>
       </c>
       <c r="F9">
-        <v>0.6769318707313746</v>
+        <v>0.08148426621974941</v>
       </c>
       <c r="G9">
-        <v>0.3469208787210216</v>
+        <v>0.6880251537802698</v>
       </c>
       <c r="H9">
-        <v>0.3687093173527261</v>
+        <v>0.3341541794959351</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -694,25 +697,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4682672552246967</v>
+        <v>1.056122842320784</v>
       </c>
       <c r="C10">
-        <v>0.3596201558300787</v>
+        <v>0.4458392755916881</v>
       </c>
       <c r="D10">
-        <v>0.06434572590283549</v>
+        <v>0.35701661626763</v>
       </c>
       <c r="E10">
-        <v>0.6709498904270196</v>
+        <v>0.08641341155685073</v>
       </c>
       <c r="F10">
-        <v>0.3415776285386105</v>
+        <v>0.6769318707313746</v>
       </c>
       <c r="G10">
-        <v>0.3583407839823598</v>
+        <v>0.3469208787210216</v>
       </c>
       <c r="H10">
-        <v>0.4678094059541168</v>
+        <v>0.3687093173527261</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -720,25 +723,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3810447272872988</v>
+        <v>0.4682672552246967</v>
       </c>
       <c r="C11">
-        <v>0.1845235747020479</v>
+        <v>0.3596201558300787</v>
       </c>
       <c r="D11">
-        <v>0.5817555460132365</v>
+        <v>0.06434572590283549</v>
       </c>
       <c r="E11">
-        <v>0.3118506246900327</v>
+        <v>0.6709498904270196</v>
       </c>
       <c r="F11">
-        <v>0.3669669040122699</v>
+        <v>0.3415776285386105</v>
       </c>
       <c r="G11">
-        <v>0.4418692325286816</v>
+        <v>0.3583407839823598</v>
       </c>
       <c r="H11">
-        <v>0.6545429505182796</v>
+        <v>0.4678094059541168</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -746,25 +749,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1422029423816584</v>
+        <v>0.3810447272872988</v>
       </c>
       <c r="C12">
-        <v>0.5525510721575033</v>
+        <v>0.1845235747020479</v>
       </c>
       <c r="D12">
-        <v>0.3088300248851115</v>
+        <v>0.5817555460132365</v>
       </c>
       <c r="E12">
-        <v>0.3481056204007895</v>
+        <v>0.3118506246900327</v>
       </c>
       <c r="F12">
-        <v>0.4215381014634773</v>
+        <v>0.3669669040122699</v>
       </c>
       <c r="G12">
-        <v>0.6400127950840317</v>
+        <v>0.4418692325286816</v>
       </c>
       <c r="H12">
-        <v>0.1428652002996471</v>
+        <v>0.6545429505182796</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -772,25 +775,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8927488127754134</v>
+        <v>0.1422029423816584</v>
       </c>
       <c r="C13">
-        <v>0.3842010866690486</v>
+        <v>0.5525510721575033</v>
       </c>
       <c r="D13">
-        <v>0.1570123340877904</v>
+        <v>0.3088300248851115</v>
       </c>
       <c r="E13">
-        <v>0.4462320140502105</v>
+        <v>0.3481056204007895</v>
       </c>
       <c r="F13">
-        <v>0.6493921986403277</v>
+        <v>0.4215381014634773</v>
       </c>
       <c r="G13">
-        <v>0.08805440168825607</v>
+        <v>0.6400127950840317</v>
       </c>
       <c r="H13">
-        <v>0.4103182202646768</v>
+        <v>0.1428652002996471</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -798,25 +801,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8348959586592991</v>
+        <v>0.8927488127754134</v>
       </c>
       <c r="C14">
-        <v>0.2041230363001488</v>
+        <v>0.3842010866690486</v>
       </c>
       <c r="D14">
-        <v>0.2059487832594023</v>
+        <v>0.1570123340877904</v>
       </c>
       <c r="E14">
-        <v>0.6853372797061905</v>
+        <v>0.4462320140502105</v>
       </c>
       <c r="F14">
-        <v>0.08600364424866319</v>
+        <v>0.6493921986403277</v>
       </c>
       <c r="G14">
-        <v>0.3337499808286466</v>
+        <v>0.08805440168825607</v>
       </c>
       <c r="H14">
-        <v>0.1295519433524077</v>
+        <v>0.4103182202646768</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -824,25 +827,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5164486232236872</v>
+        <v>0.8348959586592991</v>
       </c>
       <c r="C15">
-        <v>0.3392375229949266</v>
+        <v>0.2041230363001488</v>
       </c>
       <c r="D15">
-        <v>0.506258857889999</v>
+        <v>0.2059487832594023</v>
       </c>
       <c r="E15">
-        <v>0.1141978830192304</v>
+        <v>0.6853372797061905</v>
       </c>
       <c r="F15">
-        <v>0.3697752920210401</v>
+        <v>0.08600364424866319</v>
       </c>
       <c r="G15">
-        <v>0.09201037314819407</v>
+        <v>0.3337499808286466</v>
       </c>
       <c r="H15">
-        <v>0.4945038434164454</v>
+        <v>0.1295519433524077</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -850,117 +853,143 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5748280141027678</v>
+        <v>0.5164486232236872</v>
       </c>
       <c r="C16">
-        <v>0.5909375987643086</v>
+        <v>0.3392375229949266</v>
       </c>
       <c r="D16">
-        <v>-0.03140248361448672</v>
+        <v>0.506258857889999</v>
       </c>
       <c r="E16">
-        <v>0.3797290348802828</v>
+        <v>0.1141978830192304</v>
       </c>
       <c r="F16">
-        <v>0.107375542847739</v>
+        <v>0.3697752920210401</v>
       </c>
       <c r="G16">
-        <v>0.4556555084590223</v>
+        <v>0.09201037314819407</v>
       </c>
       <c r="H16">
-        <v>0.06474797462910251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.4945038434164454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.9019617852456914</v>
+        <v>0.5748280141027678</v>
       </c>
       <c r="C17">
-        <v>0.08568629079670848</v>
+        <v>0.5909375987643086</v>
       </c>
       <c r="D17">
-        <v>0.2172648934307159</v>
+        <v>-0.03140248361448672</v>
       </c>
       <c r="E17">
-        <v>0.1363344933129406</v>
+        <v>0.3797290348802828</v>
       </c>
       <c r="F17">
-        <v>0.4913983809139259</v>
+        <v>0.107375542847739</v>
       </c>
       <c r="G17">
-        <v>0.03342032824547542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.4556555084590223</v>
+      </c>
+      <c r="H17">
+        <v>0.06474797462910251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3325114682008229</v>
+        <v>0.9019617852456914</v>
       </c>
       <c r="C18">
-        <v>0.2349207609686054</v>
+        <v>0.08568629079670848</v>
       </c>
       <c r="D18">
-        <v>0.0417122542019461</v>
+        <v>0.2172648934307159</v>
       </c>
       <c r="E18">
-        <v>0.5236157691624059</v>
+        <v>0.1363344933129406</v>
       </c>
       <c r="F18">
-        <v>0.0458084540731927</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.4913983809139259</v>
+      </c>
+      <c r="G18">
+        <v>0.03342032824547542</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4745971203848173</v>
+        <v>0.3325114682008229</v>
       </c>
       <c r="C19">
-        <v>0.1267364976711596</v>
+        <v>0.2349207609686054</v>
       </c>
       <c r="D19">
-        <v>0.4071311908043919</v>
+        <v>0.0417122542019461</v>
       </c>
       <c r="E19">
-        <v>0.06091372572504519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.5236157691624059</v>
+      </c>
+      <c r="F19">
+        <v>0.0458084540731927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2915965747052469</v>
+        <v>0.4745971203848173</v>
       </c>
       <c r="C20">
-        <v>0.4206684630523081</v>
+        <v>0.1267364976711596</v>
       </c>
       <c r="D20">
-        <v>-0.002059193264917797</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.4071311908043919</v>
+      </c>
+      <c r="E20">
+        <v>0.06091372572504519</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6745175049177161</v>
+        <v>0.2915965747052469</v>
       </c>
       <c r="C21">
-        <v>0.09725885691711864</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.4206684630523081</v>
+      </c>
+      <c r="D21">
+        <v>-0.002059193264917797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
+        <v>0.6745175049177161</v>
+      </c>
+      <c r="C22">
+        <v>0.09725885691711864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>0.1413185481565676</v>
       </c>
     </row>
